--- a/2022/Realme/Others/Shop Wise Sales Report/Natore Shop wise sales report  May-2022.xlsx
+++ b/2022/Realme/Others/Shop Wise Sales Report/Natore Shop wise sales report  May-2022.xlsx
@@ -1282,9 +1282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP56" sqref="AP56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7382,7 +7382,9 @@
       <c r="I43" s="10">
         <v>0</v>
       </c>
-      <c r="J43" s="10"/>
+      <c r="J43" s="10">
+        <v>0</v>
+      </c>
       <c r="K43" s="10">
         <v>15</v>
       </c>
@@ -7524,7 +7526,9 @@
       <c r="I44" s="10">
         <v>0</v>
       </c>
-      <c r="J44" s="10"/>
+      <c r="J44" s="10">
+        <v>0</v>
+      </c>
       <c r="K44" s="10">
         <v>42</v>
       </c>
@@ -7666,7 +7670,9 @@
       <c r="I45" s="10">
         <v>0</v>
       </c>
-      <c r="J45" s="10"/>
+      <c r="J45" s="10">
+        <v>0</v>
+      </c>
       <c r="K45" s="10">
         <v>0</v>
       </c>
@@ -7808,7 +7814,9 @@
       <c r="I46" s="10">
         <v>0</v>
       </c>
-      <c r="J46" s="10"/>
+      <c r="J46" s="10">
+        <v>0</v>
+      </c>
       <c r="K46" s="10">
         <v>0</v>
       </c>
@@ -7950,7 +7958,9 @@
       <c r="I47" s="10">
         <v>0</v>
       </c>
-      <c r="J47" s="10"/>
+      <c r="J47" s="10">
+        <v>0</v>
+      </c>
       <c r="K47" s="10">
         <v>0</v>
       </c>
@@ -8092,7 +8102,9 @@
       <c r="I48" s="10">
         <v>0</v>
       </c>
-      <c r="J48" s="10"/>
+      <c r="J48" s="10">
+        <v>0</v>
+      </c>
       <c r="K48" s="10">
         <v>0</v>
       </c>
@@ -8234,7 +8246,9 @@
       <c r="I49" s="10">
         <v>0</v>
       </c>
-      <c r="J49" s="10"/>
+      <c r="J49" s="10">
+        <v>0</v>
+      </c>
       <c r="K49" s="10">
         <v>0</v>
       </c>
@@ -8376,7 +8390,9 @@
       <c r="I50" s="10">
         <v>0</v>
       </c>
-      <c r="J50" s="10"/>
+      <c r="J50" s="10">
+        <v>0</v>
+      </c>
       <c r="K50" s="10">
         <v>0</v>
       </c>
@@ -8518,7 +8534,9 @@
       <c r="I51" s="10">
         <v>0</v>
       </c>
-      <c r="J51" s="10"/>
+      <c r="J51" s="10">
+        <v>0</v>
+      </c>
       <c r="K51" s="10">
         <v>0</v>
       </c>
@@ -8660,7 +8678,9 @@
       <c r="I52" s="10">
         <v>0</v>
       </c>
-      <c r="J52" s="10"/>
+      <c r="J52" s="10">
+        <v>0</v>
+      </c>
       <c r="K52" s="10">
         <v>0</v>
       </c>
